--- a/sql/table.xlsx
+++ b/sql/table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>表名</t>
   </si>
@@ -32,6 +32,45 @@
   </si>
   <si>
     <t>platform</t>
+  </si>
+  <si>
+    <t>根包名</t>
+  </si>
+  <si>
+    <t>com.hyperchain</t>
+  </si>
+  <si>
+    <t>目录映射</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>platform/controller/feedback</t>
+  </si>
+  <si>
+    <t>vo</t>
+  </si>
+  <si>
+    <t>platform/controller/feedback/vo</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>platform/service</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>platform/domain</t>
+  </si>
+  <si>
+    <t>convert</t>
+  </si>
+  <si>
+    <t>platform/convert</t>
   </si>
   <si>
     <t>Name</t>
@@ -181,14 +220,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,9 +249,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,21 +297,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -241,17 +304,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,22 +334,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -297,27 +350,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,187 +377,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,16 +596,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +621,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,172 +674,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,6 +832,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1111,7 +1162,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1132,7 +1183,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1140,7 +1191,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1148,398 +1199,114 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:26">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:26">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:16">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2" t="s">
+    </row>
+    <row r="9" customFormat="1" spans="1:26">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="2" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="2" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:26">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:16">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>24</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:26">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" customFormat="1" spans="1:16">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="N11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:26">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:16">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:26">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:26">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
     </row>
     <row r="18" customFormat="1" spans="1:26">
       <c r="A18" s="1"/>
@@ -1569,145 +1336,335 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="20" customFormat="1" spans="1:26">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="22" customFormat="1" spans="1:26">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="24" customFormat="1" spans="1:26">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="26" customFormat="1" spans="1:26">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:26">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
+    <row r="20" s="2" customFormat="1" spans="1:16">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:26">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:16">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:26">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:16">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:26">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:16">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:26">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:5">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:26">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
     </row>
     <row r="30" customFormat="1" spans="1:26">
       <c r="A30" s="1"/>
@@ -1879,13 +1836,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K21:K29 K30:K1048576">
       <formula1>"true"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1048576 G8:G12 G13:G1048576 H8:H12 H13:H1048576 I8:I1048576 J8:J1048576 L8:L1048576 M8:M1048576 N8:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:F29 F30:F1048576 G21:G25 G26:G29 G30:G1048576 H21:H25 H26:H29 H30:H1048576 I21:I29 I30:I1048576 J21:J29 J30:J1048576 L21:L29 L30:L1048576 M21:M29 M30:M1048576 N30:P1048576 N21:P29">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:B29 B30:B1048576">
       <formula1>"INT,VARCHAR,CHAR,DATETIME,TIMESTAMP,DATE,BIT,FLOAT,DOUBLE,DECIMAL,BIGINT,TEXT,JSON,BLOB,BINARY,ENUM"</formula1>
     </dataValidation>
   </dataValidations>

--- a/sql/table.xlsx
+++ b/sql/table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>表名</t>
   </si>
@@ -40,37 +40,43 @@
     <t>com.hyperchain</t>
   </si>
   <si>
+    <t>请求前缀</t>
+  </si>
+  <si>
+    <t>/platform/feedback</t>
+  </si>
+  <si>
     <t>目录映射</t>
   </si>
   <si>
     <t>controller</t>
   </si>
   <si>
-    <t>platform/controller/feedback</t>
+    <t>platform/feedback/controller</t>
   </si>
   <si>
     <t>vo</t>
   </si>
   <si>
-    <t>platform/controller/feedback/vo</t>
+    <t>platform/feedback/controller/vo</t>
   </si>
   <si>
     <t>service</t>
   </si>
   <si>
-    <t>platform/service</t>
+    <t>platform/feedback/service</t>
   </si>
   <si>
     <t>domain</t>
   </si>
   <si>
-    <t>platform/domain</t>
+    <t>platform/feedback/domain</t>
   </si>
   <si>
     <t>convert</t>
   </si>
   <si>
-    <t>platform/convert</t>
+    <t>platform/feedback/convert</t>
   </si>
   <si>
     <t>Name</t>
@@ -1162,7 +1168,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1214,9 +1220,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="7" customFormat="1" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1246,18 +1260,18 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1286,26 +1300,26 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:26">
@@ -1338,63 +1352,63 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:16">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:26">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1436,13 +1450,13 @@
     </row>
     <row r="22" customFormat="1" spans="1:16">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D22">
         <v>24</v>
@@ -1462,13 +1476,13 @@
     </row>
     <row r="23" customFormat="1" spans="1:26">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1504,13 +1518,13 @@
     </row>
     <row r="24" customFormat="1" spans="1:16">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1527,13 +1541,13 @@
     </row>
     <row r="25" customFormat="1" spans="1:26">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1565,13 +1579,13 @@
     </row>
     <row r="26" customFormat="1" spans="1:16">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -1582,17 +1596,17 @@
     </row>
     <row r="27" customFormat="1" spans="1:26">
       <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1620,27 +1634,27 @@
     </row>
     <row r="28" customFormat="1" spans="1:5">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
         <v>56</v>
-      </c>
-      <c r="E28" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:26">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
